--- a/Aracaju.xlsx
+++ b/Aracaju.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftspu\OneDrive\Documentos\Material Curso\Painel2.1_Vendas\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb7p\git\lab_dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C518D37-9033-4DD9-9941-C5C578A31E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
@@ -109,14 +110,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E131" totalsRowShown="0">
-  <autoFilter ref="A1:E131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E131" totalsRowShown="0">
+  <autoFilter ref="A1:E131" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Cidade"/>
-    <tableColumn id="2" name="Data" dataDxfId="1"/>
-    <tableColumn id="3" name="Vendas" dataDxfId="0"/>
-    <tableColumn id="4" name="LojaID"/>
-    <tableColumn id="5" name="Qtde"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Cidade"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendas" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LojaID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qtde"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -384,11 +385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,9 +544,6 @@
       <c r="B9" s="1">
         <v>43466</v>
       </c>
-      <c r="C9" s="2">
-        <v>172.22</v>
-      </c>
       <c r="D9">
         <v>1522</v>
       </c>
@@ -1375,9 +1373,6 @@
       </c>
       <c r="B58" s="1">
         <v>43101</v>
-      </c>
-      <c r="C58" s="2">
-        <v>41.9</v>
       </c>
       <c r="D58">
         <v>1523</v>
